--- a/biology/Zoologie/Beethoven___Une_star_est_née_!/Beethoven___Une_star_est_née_!.xlsx
+++ b/biology/Zoologie/Beethoven___Une_star_est_née_!/Beethoven___Une_star_est_née_!.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Beethoven_:_Une_star_est_n%C3%A9e_!</t>
+          <t>Beethoven_:_Une_star_est_née_!</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Beethoven : Une star est née ! (Beethoven's Big Break) est un film américain de Mike Elliott sorti en 2008 directement en vidéo. Il succède à Beethoven (1992), Beethoven 2 (1993), Beethoven 3 (2000), Beethoven 4 (2001) et Beethoven et le Trésor perdu (2003).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Beethoven_:_Une_star_est_n%C3%A9e_!</t>
+          <t>Beethoven_:_Une_star_est_née_!</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un dresseur d'animaux, Sal, fait enlever, afin de toucher une rançon, son (petit) chien alors que ce dernier allait être la vedette d'un film. Malheureusement pour lui l'équipe du film décide de trouver un remplaçant. Beethoven va avoir l'incroyable chance de gagner l'audition et d'être plongé dans l'univers magique du cinéma.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Beethoven_:_Une_star_est_n%C3%A9e_!</t>
+          <t>Beethoven_:_Une_star_est_née_!</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Beethoven : Une star est née !
 Titre original : Beethoven's Big Break
@@ -569,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Beethoven_:_Une_star_est_n%C3%A9e_!</t>
+          <t>Beethoven_:_Une_star_est_née_!</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,7 +603,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Jonathan Silverman (V. F. : Guillaume Lebon) : Eddie
 Jennifer Finnigan (V. F. : Laurence Dourlens) : Lisa
@@ -610,7 +628,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Beethoven_:_Une_star_est_n%C3%A9e_!</t>
+          <t>Beethoven_:_Une_star_est_née_!</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -628,7 +646,9 @@
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Ce film est également appelé Beethoven 6 (ou Beethoven 6 : Une star est née !) en tant que suite des 5 premiers volets de la saga.
 Ce film a également connu deux autres suites, directement sorties en vidéo : Beethoven sauve Noël  en 2011 et Beethoven et le Trésor des pirates en 2014.
